--- a/desafio-crud/Job_Hunting_Flavio.xlsx
+++ b/desafio-crud/Job_Hunting_Flavio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="10215" windowHeight="4050" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="10215" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Como utilizar" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Networking" sheetId="6" r:id="rId6"/>
     <sheet name="Remuneração" sheetId="7" r:id="rId7"/>
     <sheet name="Listas" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Plan1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="178">
   <si>
     <t>Como utilizar?</t>
   </si>
@@ -380,9 +381,6 @@
     <t>Outros</t>
   </si>
   <si>
-    <t>descreva</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -461,9 +459,6 @@
     <t xml:space="preserve">2. estar contribuindo normalmente ao inss </t>
   </si>
   <si>
-    <t>o cargo de assistente administrativo do hospital universitário gaffree in guinle do concurso de 2016</t>
-  </si>
-  <si>
     <t>1. assistente administrativo do hospital universitário - saúde pública</t>
   </si>
   <si>
@@ -492,16 +487,93 @@
   </si>
   <si>
     <t>PORQUE PARTICIPEI DO CONCURSO DE 2016 E PASSEI</t>
+  </si>
+  <si>
+    <t>Target Work</t>
+  </si>
+  <si>
+    <t>Programa de estágio Sulamérica</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>vagas.com</t>
+  </si>
+  <si>
+    <t>Lorena Morolli</t>
+  </si>
+  <si>
+    <t>(21)3011-9194</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lorena-morolli-588894133/</t>
+  </si>
+  <si>
+    <t>Prova de Programação</t>
+  </si>
+  <si>
+    <t>estágio em requisitos</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/clave-consultoria/</t>
+  </si>
+  <si>
+    <t>CIEE</t>
+  </si>
+  <si>
+    <t>Nube</t>
+  </si>
+  <si>
+    <t>Empresa ramo comércio</t>
+  </si>
+  <si>
+    <t>Assistente administrativo hospitalar</t>
+  </si>
+  <si>
+    <t>3.independência financeira</t>
+  </si>
+  <si>
+    <t>3.cuidar muito bem da minha saúde e ser coerente com minha espiritualidade católica</t>
+  </si>
+  <si>
+    <t>pague bem - colaborativa - bom ambiente</t>
+  </si>
+  <si>
+    <t>respeito e profissionalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprender coisas novas na área de TI - programar - relações estritamente profissionais </t>
+  </si>
+  <si>
+    <t>manutenção de computadores</t>
+  </si>
+  <si>
+    <t>BOLSA CONVÊNIO COM UNIVERSIDADES</t>
+  </si>
+  <si>
+    <t>Tenho lutado muito para conquistar meus objetivos, em 2001 fiquei doente e tive que cuidar de minha saúde emocional. Em 2008 deixei um trabalho que tinha estabilidade e diversão para ser agente comunitário de saúde. A experiência durou até 2015 quando não tive mais forças emocionais para a pressão no trabalho e entrei em auxilio doença. Neste ano estava quase terminando o curso universitário, mas perdi o emprego e tive que trancar a faculdade por falta de recursos. Em 2019 reiniciei a formação em TI na Universidade São José. Atualmente estou no último semestre. Estou desempregado e estudo criteriosamente as oportunidades de emprego visando meu bem estar emocional e continuidade do tratamento psicológico.</t>
+  </si>
+  <si>
+    <t>etágio em desenvolvimento</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>rh@pixelhouse.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +656,27 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,14 +685,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF61FFA8"/>
+        <bgColor rgb="FF61FFA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F1A1A"/>
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF61FFA8"/>
+        <fgColor rgb="FF0F1A1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF386782"/>
         <bgColor rgb="FF61FFA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF386782"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1155,14 +1264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1171,25 +1276,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,21 +1292,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,25 +1308,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1253,8 +1341,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1265,18 +1359,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,10 +1377,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,25 +1393,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,13 +1405,88 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1348,6 +1494,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF386782"/>
+      <color rgb="FF0F1A1A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1357,6 +1509,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24208</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243783" y="447676"/>
+          <a:ext cx="1023542" cy="1033090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1624,7 +1825,7 @@
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1679,7 +1880,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,164 +1894,166 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="9" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
+      <c r="A11" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2848,7 +3051,8 @@
     <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2857,7 +3061,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M13"/>
+      <selection activeCell="A25" sqref="A25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2865,7 +3069,9 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="26" width="7.625" customWidth="1"/>
+    <col min="6" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2887,487 +3093,495 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="48"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="48"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="53"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="53"/>
-    </row>
-    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="55"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="55"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="55"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="55"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="55"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="57" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="58" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="61" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="57" t="s">
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="58" t="s">
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4379,17 +4593,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="7.625" customWidth="1"/>
+    <col min="1" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="11" width="7.625" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="42.125" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4397,643 +4614,643 @@
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="69"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="9" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
     </row>
     <row r="31" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="8">
         <v>3</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="8">
         <v>5</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="8">
         <v>7</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="8">
         <v>8</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="8">
         <v>9</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="8">
         <v>10</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6032,35 +6249,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="13" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
     <col min="16" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6068,276 +6292,338 @@
       <c r="A4" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44199</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="15">
+        <v>44199</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="15">
+        <v>44239</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="B7" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44320</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="15">
+        <v>44322</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="B8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44323</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="B9" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="15">
+        <v>44177</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7323,8 +7609,12 @@
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7344,7 +7634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7353,204 +7645,204 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="103" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8545,7 +8837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8557,383 +8851,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="53"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="81" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="53"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="17" t="s">
+      <c r="B6" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="53"/>
+      <c r="H6" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="17" t="s">
+      <c r="B7" s="63">
+        <v>1014</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="53"/>
+      <c r="H7" s="109">
+        <v>2300</v>
+      </c>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="85">
+      <c r="E8" s="31"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="65">
         <v>0</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="53"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="85">
+      <c r="E9" s="31"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="65">
         <v>0</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="53"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="85">
+      <c r="E10" s="31"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="65">
         <v>0</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="53"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="53"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="53"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="65">
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="53"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="65">
+        <v>500</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="D15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="65">
         <v>0</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E16" s="65">
         <v>0</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="65">
         <v>0</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="85">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="53"/>
-    </row>
-    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="85">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="53"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="53"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="53"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="53"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="53"/>
+      <c r="B21" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9972,49 +10274,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="20" t="s">
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="20" t="s">
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="20" t="s">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="20" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="20" t="s">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="20" t="s">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="20" t="s">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11001,4 +11303,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>